--- a/DesktopC/bin/Debug/HOUSE REPORT 2017-08-04.xlsx
+++ b/DesktopC/bin/Debug/HOUSE REPORT 2017-08-04.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30600" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30600" windowHeight="6255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JUL 24TH" sheetId="1" r:id="rId1"/>
     <sheet name="JUL 25TH" sheetId="2" r:id="rId2"/>
     <sheet name="JULY 26TH" sheetId="3" r:id="rId3"/>
     <sheet name="JUL 27TH " sheetId="4" r:id="rId4"/>
-    <sheet name="2017-07-27 00-00-00" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-07-28 00-00-00" sheetId="5" r:id="rId5"/>
     <sheet name="JUL 29TH" sheetId="6" r:id="rId6"/>
     <sheet name="JUL 30TH" sheetId="7" r:id="rId7"/>
     <sheet name="JUL 24TH (2)" sheetId="8" r:id="rId8"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="76">
   <si>
     <t>Volume</t>
   </si>
@@ -263,6 +263,9 @@
   <si>
     <t>JULY 30TH</t>
   </si>
+  <si>
+    <t>g8perhead.com</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +326,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,6 +626,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -8785,10 +8802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9267,7 +9284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -9294,7 +9311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -9324,7 +9341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -9354,7 +9371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -9384,7 +9401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>50</v>
       </c>
@@ -9414,7 +9431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -9444,7 +9461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
@@ -9480,7 +9497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -9511,7 +9528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -9535,7 +9552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
@@ -9553,7 +9570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>63</v>
       </c>
@@ -9574,7 +9591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>65</v>
       </c>
@@ -9601,10 +9618,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -9619,14 +9636,14 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>66</v>
       </c>
@@ -9641,6 +9658,9 @@
       <c r="D32" s="29" t="e">
         <f>(C32/B32)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10563,10 +10583,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,6 +10596,7 @@
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -10649,28 +10670,28 @@
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>81653</v>
+        <v>87661</v>
       </c>
       <c r="C3" s="10">
-        <v>-12134</v>
+        <v>-10404</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D22" si="0">(C3/B3)</f>
-        <v>-0.14860446033826069</v>
+        <v>-0.118684477703882</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="10">
-        <v>14449</v>
+        <v>1501</v>
       </c>
       <c r="H3" s="10">
-        <v>-430</v>
+        <v>-653</v>
       </c>
       <c r="I3" s="8">
         <f>(H3/G3)</f>
-        <v>-2.975984497197038E-2</v>
+        <v>-0.43504330446369088</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>8</v>
@@ -10687,28 +10708,28 @@
         <v>9</v>
       </c>
       <c r="B4" s="10">
-        <v>47632</v>
+        <v>13225</v>
       </c>
       <c r="C4" s="10">
-        <v>-2443</v>
+        <v>1836</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="0"/>
-        <v>-5.1289049378569027E-2</v>
+        <v>0.13882797731568999</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
-        <v>9740</v>
+        <v>200</v>
       </c>
       <c r="H4" s="10">
-        <v>-8223</v>
+        <v>91</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I13" si="2">(H4/G4)</f>
-        <v>-0.84425051334702261</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>11</v>
@@ -10725,28 +10746,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="10">
-        <v>41462</v>
+        <v>18858</v>
       </c>
       <c r="C5" s="10">
-        <v>8827</v>
+        <v>3200</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>0.21289373402151368</v>
+        <v>0.16968925654894473</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10">
-        <v>4070</v>
+        <v>1953</v>
       </c>
       <c r="H5" s="10">
-        <v>-349</v>
+        <v>57</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>-8.5749385749385745E-2</v>
+        <v>2.9185867895545316E-2</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>14</v>
@@ -10758,19 +10779,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="10">
-        <v>14449</v>
+        <v>7159</v>
       </c>
       <c r="C6" s="10">
-        <v>-430</v>
+        <v>986</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>-2.975984497197038E-2</v>
+        <v>0.13772873306327699</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="13" t="s">
@@ -10785,10 +10806,12 @@
       <c r="K6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="L6" s="30">
+        <f>SUM(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="30">
+        <f>SUM(M3:M5)</f>
         <v>0</v>
       </c>
       <c r="N6" s="8" t="e">
@@ -10801,14 +10824,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="10">
-        <v>9740</v>
+        <v>6739</v>
       </c>
       <c r="C7" s="10">
-        <v>-8223</v>
+        <v>2117</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>-0.84425051334702261</v>
+        <v>0.31414156403027155</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="13" t="s">
@@ -10826,14 +10849,14 @@
         <v>20</v>
       </c>
       <c r="B8" s="10">
-        <v>4070</v>
+        <v>5915</v>
       </c>
       <c r="C8" s="10">
-        <v>-349</v>
+        <v>743</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>-8.5749385749385745E-2</v>
+        <v>0.12561284868977177</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="13" t="s">
@@ -10942,14 +10965,14 @@
         <v>8</v>
       </c>
       <c r="L11" s="10">
-        <v>19001</v>
+        <v>1551</v>
       </c>
       <c r="M11" s="10">
-        <v>11198</v>
+        <v>964</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N23" si="3">(M11/L11)</f>
-        <v>0.58933740329456341</v>
+        <v>0.62153449387491944</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -10957,24 +10980,24 @@
         <v>29</v>
       </c>
       <c r="B12" s="10">
-        <v>3131</v>
+        <v>4249</v>
       </c>
       <c r="C12" s="10">
-        <v>-1548</v>
+        <v>-347</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>-0.49441073139572023</v>
+        <v>-8.1666274417509996E-2</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="10">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H12" s="14">
-        <v>-350</v>
+        <v>-320</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
@@ -10984,14 +11007,14 @@
         <v>11</v>
       </c>
       <c r="L12" s="10">
-        <v>9000</v>
+        <v>4749</v>
       </c>
       <c r="M12" s="10">
-        <v>-800</v>
+        <v>1878</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="3"/>
-        <v>-8.8888888888888892E-2</v>
+        <v>0.39545167403663928</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10999,43 +11022,43 @@
         <v>31</v>
       </c>
       <c r="B13" s="10">
-        <v>5170</v>
+        <v>1470</v>
       </c>
       <c r="C13" s="10">
-        <v>3638</v>
+        <v>-1372</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>0.70367504835589945</v>
+        <v>-0.93333333333333335</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="31">
         <f>SUM(G3:G12)</f>
-        <v>28609</v>
-      </c>
-      <c r="H13" s="16">
+        <v>3974</v>
+      </c>
+      <c r="H13" s="31">
         <f>SUM(H3:H12)</f>
-        <v>-9352</v>
+        <v>-825</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
-        <v>-0.32689013946660139</v>
+        <v>-0.20759939607448416</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="10">
-        <v>4057</v>
+        <v>4737</v>
       </c>
       <c r="M13" s="10">
-        <v>2640</v>
+        <v>2068</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="3"/>
-        <v>0.65072713827951689</v>
+        <v>0.43656322567025546</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -11043,14 +11066,14 @@
         <v>32</v>
       </c>
       <c r="B14" s="10">
-        <v>2365</v>
+        <v>2878</v>
       </c>
       <c r="C14" s="10">
-        <v>1635</v>
+        <v>2190</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>0.69133192389006337</v>
+        <v>0.76094510076441979</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -11061,14 +11084,14 @@
         <v>33</v>
       </c>
       <c r="L14" s="10">
-        <v>2183</v>
+        <v>645</v>
       </c>
       <c r="M14" s="10">
-        <v>-2183</v>
+        <v>500</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.77519379844961245</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11076,28 +11099,28 @@
         <v>36</v>
       </c>
       <c r="B15" s="10">
-        <v>1425</v>
+        <v>1558</v>
       </c>
       <c r="C15" s="10">
-        <v>-448</v>
+        <v>-333</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>-0.31438596491228071</v>
+        <v>-0.21373555840821565</v>
       </c>
       <c r="E15" s="4"/>
       <c r="K15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="10">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="M15" s="10">
-        <v>-385</v>
+        <v>-85</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="3"/>
-        <v>-0.44560185185185186</v>
+        <v>-0.10047281323877069</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -11105,14 +11128,14 @@
         <v>38</v>
       </c>
       <c r="B16" s="10">
-        <v>2545</v>
+        <v>3676</v>
       </c>
       <c r="C16" s="10">
-        <v>-1302</v>
+        <v>1674</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>-0.51159135559921409</v>
+        <v>0.45538628944504894</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
@@ -11131,29 +11154,29 @@
         <v>37</v>
       </c>
       <c r="L16" s="10">
-        <v>1191</v>
+        <v>985</v>
       </c>
       <c r="M16" s="10">
-        <v>877</v>
+        <v>650</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="3"/>
-        <v>0.73635600335852225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.65989847715736039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="10">
-        <v>7135</v>
+        <v>4968</v>
       </c>
       <c r="C17" s="10">
-        <v>-315</v>
+        <v>-807</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>-4.4148563419761741E-2</v>
+        <v>-0.16243961352657005</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
@@ -11166,29 +11189,29 @@
         <v>40</v>
       </c>
       <c r="L17" s="10">
-        <v>1613</v>
+        <v>5550</v>
       </c>
       <c r="M17" s="10">
-        <v>750</v>
+        <v>5050</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="3"/>
-        <v>0.46497210167389957</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.90990990990990994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="10">
-        <v>0</v>
+        <v>10610.83</v>
       </c>
       <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9626.1720000000005</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90720254683186896</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="11" t="s">
@@ -11204,17 +11227,17 @@
         <v>43</v>
       </c>
       <c r="L18" s="10">
-        <v>1772</v>
+        <v>6743</v>
       </c>
       <c r="M18" s="10">
-        <v>560</v>
+        <v>3757</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="3"/>
-        <v>0.3160270880361174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.55717039893222597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -11233,30 +11256,30 @@
         <v>45</v>
       </c>
       <c r="G19" s="10">
-        <v>19001</v>
+        <v>1551</v>
       </c>
       <c r="H19" s="10">
-        <v>11198</v>
+        <v>964</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>0.58933740329456341</v>
+        <v>0.62153449387491944</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="10">
-        <v>2463</v>
+        <v>1092</v>
       </c>
       <c r="M19" s="10">
-        <v>-174</v>
+        <v>900</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="3"/>
-        <v>-7.0645554202192443E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.82417582417582413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
@@ -11275,100 +11298,92 @@
         <v>48</v>
       </c>
       <c r="G20" s="10">
-        <v>9000</v>
+        <v>4749</v>
       </c>
       <c r="H20" s="10">
-        <v>-800</v>
+        <v>1878</v>
       </c>
       <c r="I20" s="8">
         <f>(H20/G20)</f>
-        <v>-8.8888888888888892E-2</v>
+        <v>0.39545167403663928</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="10">
-        <v>272</v>
-      </c>
-      <c r="M20" s="10">
-        <v>-272</v>
-      </c>
-      <c r="N20" s="8">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="10">
-        <v>609</v>
+        <v>540</v>
       </c>
       <c r="C21" s="10">
-        <v>96</v>
+        <v>-340</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>0.15763546798029557</v>
+        <v>-0.62962962962962965</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="10">
-        <v>4057</v>
+        <v>4737</v>
       </c>
       <c r="H21" s="10">
-        <v>2640</v>
+        <v>2068</v>
       </c>
       <c r="I21" s="8">
         <f>(H21/G21)</f>
-        <v>0.65072713827951689</v>
+        <v>0.43656322567025546</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="10">
-        <v>120</v>
-      </c>
-      <c r="M21" s="10">
-        <v>-120</v>
-      </c>
-      <c r="N21" s="8">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="31">
         <f>SUM(B3:B21)</f>
-        <v>221386</v>
-      </c>
-      <c r="C22" s="16">
+        <v>169506.83</v>
+      </c>
+      <c r="C22" s="31">
         <f>SUM(C3:C21)</f>
-        <v>-12996</v>
+        <v>8769.1720000000005</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>-5.8702899008970758E-2</v>
+        <v>5.1733443425259033E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="10">
-        <v>2183</v>
+        <v>645</v>
       </c>
       <c r="H22" s="10">
-        <v>-2183</v>
+        <v>500</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0.77519379844961245</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>55</v>
@@ -11380,7 +11395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11390,26 +11405,30 @@
         <v>56</v>
       </c>
       <c r="G23" s="10">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="H23" s="10">
-        <v>-385</v>
+        <v>-85</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
-        <v>-0.44560185185185186</v>
+        <v>-0.10047281323877069</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
       <c r="N23" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -11427,32 +11446,32 @@
         <v>58</v>
       </c>
       <c r="G24" s="10">
-        <v>1191</v>
+        <v>985</v>
       </c>
       <c r="H24" s="10">
-        <v>877</v>
+        <v>650</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="4"/>
-        <v>0.73635600335852225</v>
+        <v>0.65989847715736039</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="30">
         <f>SUM(L11:L23)</f>
-        <v>42536</v>
-      </c>
-      <c r="M24" s="10">
+        <v>26898</v>
+      </c>
+      <c r="M24" s="30">
         <f>SUM(M11:M23)</f>
-        <v>12091</v>
+        <v>15682</v>
       </c>
       <c r="N24" s="8">
         <f>(M24/L24)</f>
-        <v>0.28425333834869287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.5830173247081567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>61</v>
       </c>
@@ -11464,91 +11483,98 @@
         <v>60</v>
       </c>
       <c r="G25" s="10">
-        <v>1613</v>
+        <v>5550</v>
       </c>
       <c r="H25" s="10">
-        <v>750</v>
+        <v>5050</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>0.46497210167389957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.90990990990990994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="10">
-        <v>9822</v>
+        <v>2469</v>
       </c>
       <c r="C26" s="10">
-        <v>-113</v>
+        <v>134</v>
       </c>
       <c r="D26" s="8">
         <f>(C26/B26)</f>
-        <v>-1.1504785176135207E-2</v>
+        <v>5.4272985014175781E-2</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="10">
-        <v>1772</v>
+        <v>6743</v>
       </c>
       <c r="H26" s="10">
-        <v>560</v>
+        <v>3757</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="4"/>
-        <v>0.3160270880361174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.55717039893222597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="31">
         <f>SUM(B26)</f>
-        <v>9822</v>
-      </c>
-      <c r="C27" s="16">
+        <v>2469</v>
+      </c>
+      <c r="C27" s="31">
         <f>SUM(C26)</f>
-        <v>-113</v>
+        <v>134</v>
       </c>
       <c r="D27" s="8">
         <f>(C27/B27)</f>
-        <v>-1.1504785176135207E-2</v>
+        <v>5.4272985014175781E-2</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8" t="e">
+      <c r="G27" s="10">
+        <v>1450</v>
+      </c>
+      <c r="H27" s="10">
+        <v>-1090</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.75172413793103443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="31">
         <f>SUM(G18:G27)</f>
-        <v>39681</v>
-      </c>
-      <c r="H28" s="16">
+        <v>27256</v>
+      </c>
+      <c r="H28" s="31">
         <f>SUM(H18:H27)</f>
-        <v>12657</v>
+        <v>13692</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="4"/>
-        <v>0.31896877598850837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+        <v>0.50234810683886122</v>
+      </c>
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -11563,28 +11589,28 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="28">
         <f>(B22+G13+L6+B26+G28+L24)</f>
-        <v>342034</v>
+        <v>230103.83</v>
       </c>
       <c r="C31" s="28">
         <f>(C22+C26+H28+H13+M6+M24)</f>
-        <v>2287</v>
+        <v>37452.171999999999</v>
       </c>
       <c r="D31" s="29">
         <f>(C31/B31)</f>
-        <v>6.6864697661635974E-3</v>
+        <v>0.16276205398232615</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -11614,6 +11640,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DesktopC/bin/Debug/HOUSE REPORT 2017-08-04.xlsx
+++ b/DesktopC/bin/Debug/HOUSE REPORT 2017-08-04.xlsx
@@ -16,7 +16,7 @@
     <sheet name="JUL 25TH" sheetId="2" r:id="rId2"/>
     <sheet name="JULY 26TH" sheetId="3" r:id="rId3"/>
     <sheet name="JUL 27TH " sheetId="4" r:id="rId4"/>
-    <sheet name="2017-07-28 00-00-00" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-07-30 00-00-00" sheetId="5" r:id="rId5"/>
     <sheet name="JUL 29TH" sheetId="6" r:id="rId6"/>
     <sheet name="JUL 30TH" sheetId="7" r:id="rId7"/>
     <sheet name="JUL 24TH (2)" sheetId="8" r:id="rId8"/>
@@ -10670,28 +10670,28 @@
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>87661</v>
+        <v>101285</v>
       </c>
       <c r="C3" s="10">
-        <v>-10404</v>
+        <v>-27409</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D22" si="0">(C3/B3)</f>
-        <v>-0.118684477703882</v>
+        <v>-0.27061262773362293</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="10">
-        <v>1501</v>
+        <v>1589</v>
       </c>
       <c r="H3" s="10">
-        <v>-653</v>
+        <v>-218</v>
       </c>
       <c r="I3" s="8">
         <f>(H3/G3)</f>
-        <v>-0.43504330446369088</v>
+        <v>-0.13719320327249843</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>8</v>
@@ -10708,28 +10708,28 @@
         <v>9</v>
       </c>
       <c r="B4" s="10">
-        <v>13225</v>
+        <v>20595</v>
       </c>
       <c r="C4" s="10">
-        <v>1836</v>
+        <v>-16859</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="0"/>
-        <v>0.13882797731568999</v>
+        <v>-0.81859674678319982</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10">
-        <v>200</v>
+        <v>5011</v>
       </c>
       <c r="H4" s="10">
-        <v>91</v>
+        <v>-1260</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I13" si="2">(H4/G4)</f>
-        <v>0.45500000000000002</v>
+        <v>-0.2514468170025943</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>11</v>
@@ -10746,28 +10746,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="10">
-        <v>18858</v>
+        <v>23696</v>
       </c>
       <c r="C5" s="10">
-        <v>3200</v>
+        <v>2836</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>0.16968925654894473</v>
+        <v>0.11968264686022957</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10">
-        <v>1953</v>
+        <v>2576</v>
       </c>
       <c r="H5" s="10">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>2.9185867895545316E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>14</v>
@@ -10784,14 +10784,14 @@
         <v>15</v>
       </c>
       <c r="B6" s="10">
-        <v>7159</v>
+        <v>7926</v>
       </c>
       <c r="C6" s="10">
-        <v>986</v>
+        <v>-5483</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>0.13772873306327699</v>
+        <v>-0.69177390865505928</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="13" t="s">
@@ -10824,14 +10824,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="10">
-        <v>6739</v>
+        <v>10950</v>
       </c>
       <c r="C7" s="10">
-        <v>2117</v>
+        <v>6347</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>0.31414156403027155</v>
+        <v>0.57963470319634702</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="13" t="s">
@@ -10849,14 +10849,14 @@
         <v>20</v>
       </c>
       <c r="B8" s="10">
-        <v>5915</v>
+        <v>6079</v>
       </c>
       <c r="C8" s="10">
-        <v>743</v>
+        <v>3256</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>0.12561284868977177</v>
+        <v>0.53561441026484624</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="13" t="s">
@@ -10964,15 +10964,11 @@
       <c r="K11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="10">
-        <v>1551</v>
-      </c>
-      <c r="M11" s="10">
-        <v>964</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8" t="e">
         <f t="shared" ref="N11:N23" si="3">(M11/L11)</f>
-        <v>0.62153449387491944</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -10980,41 +10976,37 @@
         <v>29</v>
       </c>
       <c r="B12" s="10">
-        <v>4249</v>
+        <v>2845</v>
       </c>
       <c r="C12" s="10">
-        <v>-347</v>
+        <v>-526</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>-8.1666274417509996E-2</v>
+        <v>-0.18488576449912125</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="10">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
-        <v>-320</v>
-      </c>
-      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="e">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="10">
-        <v>4749</v>
-      </c>
-      <c r="M12" s="10">
-        <v>1878</v>
-      </c>
-      <c r="N12" s="8">
-        <f t="shared" si="3"/>
-        <v>0.39545167403663928</v>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11022,14 +11014,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="10">
-        <v>1470</v>
+        <v>971</v>
       </c>
       <c r="C13" s="10">
-        <v>-1372</v>
+        <v>-971</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>-0.93333333333333335</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="15" t="s">
@@ -11037,28 +11029,24 @@
       </c>
       <c r="G13" s="31">
         <f>SUM(G3:G12)</f>
-        <v>3974</v>
+        <v>9176</v>
       </c>
       <c r="H13" s="31">
         <f>SUM(H3:H12)</f>
-        <v>-825</v>
+        <v>-1340</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
-        <v>-0.20759939607448416</v>
+        <v>-0.14603312990409764</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="10">
-        <v>4737</v>
-      </c>
-      <c r="M13" s="10">
-        <v>2068</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="3"/>
-        <v>0.43656322567025546</v>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -11066,14 +11054,14 @@
         <v>32</v>
       </c>
       <c r="B14" s="10">
-        <v>2878</v>
+        <v>2846</v>
       </c>
       <c r="C14" s="10">
-        <v>2190</v>
+        <v>-287</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>0.76094510076441979</v>
+        <v>-0.10084328882642304</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -11083,15 +11071,11 @@
       <c r="K14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="10">
-        <v>645</v>
-      </c>
-      <c r="M14" s="10">
-        <v>500</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="3"/>
-        <v>0.77519379844961245</v>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11099,28 +11083,24 @@
         <v>36</v>
       </c>
       <c r="B15" s="10">
-        <v>1558</v>
+        <v>3560</v>
       </c>
       <c r="C15" s="10">
-        <v>-333</v>
+        <v>960</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>-0.21373555840821565</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="E15" s="4"/>
       <c r="K15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="10">
-        <v>846</v>
-      </c>
-      <c r="M15" s="10">
-        <v>-85</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="3"/>
-        <v>-0.10047281323877069</v>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -11128,14 +11108,14 @@
         <v>38</v>
       </c>
       <c r="B16" s="10">
-        <v>3676</v>
+        <v>3384</v>
       </c>
       <c r="C16" s="10">
-        <v>1674</v>
+        <v>-952</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>0.45538628944504894</v>
+        <v>-0.28132387706855794</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
@@ -11153,15 +11133,11 @@
       <c r="K16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="10">
-        <v>985</v>
-      </c>
-      <c r="M16" s="10">
-        <v>650</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="3"/>
-        <v>0.65989847715736039</v>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -11169,14 +11145,14 @@
         <v>41</v>
       </c>
       <c r="B17" s="10">
-        <v>4968</v>
+        <v>5300</v>
       </c>
       <c r="C17" s="10">
-        <v>-807</v>
+        <v>2019</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>-0.16243961352657005</v>
+        <v>0.3809433962264151</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
@@ -11188,15 +11164,11 @@
       <c r="K17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="10">
-        <v>5550</v>
-      </c>
-      <c r="M17" s="10">
-        <v>5050</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="3"/>
-        <v>0.90990990990990994</v>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -11204,14 +11176,14 @@
         <v>44</v>
       </c>
       <c r="B18" s="10">
-        <v>10610.83</v>
+        <v>9617.9959999999992</v>
       </c>
       <c r="C18" s="10">
-        <v>9626.1720000000005</v>
+        <v>-1651.9960000000001</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>0.90720254683186896</v>
+        <v>-0.17176093647782764</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="11" t="s">
@@ -11226,15 +11198,11 @@
       <c r="K18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="10">
-        <v>6743</v>
-      </c>
-      <c r="M18" s="10">
-        <v>3757</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="3"/>
-        <v>0.55717039893222597</v>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -11242,41 +11210,37 @@
         <v>47</v>
       </c>
       <c r="B19" s="10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-110</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="10">
-        <v>1551</v>
+        <v>2882</v>
       </c>
       <c r="H19" s="10">
-        <v>964</v>
+        <v>679</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>0.62153449387491944</v>
+        <v>0.2356002775850104</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="10">
-        <v>1092</v>
-      </c>
-      <c r="M19" s="10">
-        <v>900</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="3"/>
-        <v>0.82417582417582413</v>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -11284,28 +11248,28 @@
         <v>50</v>
       </c>
       <c r="B20" s="10">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-101</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.16369529983792544</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="10">
-        <v>4749</v>
+        <v>2042</v>
       </c>
       <c r="H20" s="10">
-        <v>1878</v>
+        <v>-1392</v>
       </c>
       <c r="I20" s="8">
         <f>(H20/G20)</f>
-        <v>0.39545167403663928</v>
+        <v>-0.68168462291870713</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>49</v>
@@ -11322,33 +11286,35 @@
         <v>53</v>
       </c>
       <c r="B21" s="10">
-        <v>540</v>
+        <v>1355</v>
       </c>
       <c r="C21" s="10">
-        <v>-340</v>
+        <v>-294</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>-0.62962962962962965</v>
+        <v>-0.21697416974169742</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="10">
-        <v>4737</v>
+        <v>1613</v>
       </c>
       <c r="H21" s="10">
-        <v>2068</v>
+        <v>1100</v>
       </c>
       <c r="I21" s="8">
         <f>(H21/G21)</f>
-        <v>0.43656322567025546</v>
+        <v>0.68195908245505266</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
       <c r="M21" s="10"/>
       <c r="N21" s="8" t="e">
         <f t="shared" si="3"/>
@@ -11361,29 +11327,29 @@
       </c>
       <c r="B22" s="31">
         <f>SUM(B3:B21)</f>
-        <v>169506.83</v>
+        <v>201136.99599999998</v>
       </c>
       <c r="C22" s="31">
         <f>SUM(C3:C21)</f>
-        <v>8769.1720000000005</v>
+        <v>-39225.995999999999</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>5.1733443425259033E-2</v>
+        <v>-0.1950212878788346</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="10">
-        <v>645</v>
+        <v>2847</v>
       </c>
       <c r="H22" s="10">
-        <v>500</v>
+        <v>1550</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>0.77519379844961245</v>
+        <v>0.54443273621355814</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>55</v>
@@ -11405,14 +11371,14 @@
         <v>56</v>
       </c>
       <c r="G23" s="10">
-        <v>846</v>
+        <v>5371</v>
       </c>
       <c r="H23" s="10">
-        <v>-85</v>
+        <v>388</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
-        <v>-0.10047281323877069</v>
+        <v>7.223980636752933E-2</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>57</v>
@@ -11446,29 +11412,29 @@
         <v>58</v>
       </c>
       <c r="G24" s="10">
-        <v>985</v>
+        <v>900</v>
       </c>
       <c r="H24" s="10">
-        <v>650</v>
+        <v>-535</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="4"/>
-        <v>0.65989847715736039</v>
+        <v>-0.59444444444444444</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="L24" s="30">
         <f>SUM(L11:L23)</f>
-        <v>26898</v>
+        <v>0</v>
       </c>
       <c r="M24" s="30">
         <f>SUM(M11:M23)</f>
-        <v>15682</v>
-      </c>
-      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8" t="e">
         <f>(M24/L24)</f>
-        <v>0.5830173247081567</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -11483,14 +11449,14 @@
         <v>60</v>
       </c>
       <c r="G25" s="10">
-        <v>5550</v>
+        <v>1438</v>
       </c>
       <c r="H25" s="10">
-        <v>5050</v>
+        <v>-608</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>0.90990990990990994</v>
+        <v>-0.42280945757997218</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -11498,28 +11464,28 @@
         <v>63</v>
       </c>
       <c r="B26" s="10">
-        <v>2469</v>
+        <v>8467</v>
       </c>
       <c r="C26" s="10">
-        <v>134</v>
+        <v>1314</v>
       </c>
       <c r="D26" s="8">
         <f>(C26/B26)</f>
-        <v>5.4272985014175781E-2</v>
+        <v>0.15519074052202669</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="10">
-        <v>6743</v>
+        <v>1379</v>
       </c>
       <c r="H26" s="10">
-        <v>3757</v>
+        <v>313</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="4"/>
-        <v>0.55717039893222597</v>
+        <v>0.22697606961566352</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11528,29 +11494,29 @@
       </c>
       <c r="B27" s="31">
         <f>SUM(B26)</f>
-        <v>2469</v>
+        <v>8467</v>
       </c>
       <c r="C27" s="31">
         <f>SUM(C26)</f>
-        <v>134</v>
+        <v>1314</v>
       </c>
       <c r="D27" s="8">
         <f>(C27/B27)</f>
-        <v>5.4272985014175781E-2</v>
+        <v>0.15519074052202669</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="10">
-        <v>1450</v>
+        <v>249.99959999999999</v>
       </c>
       <c r="H27" s="10">
-        <v>-1090</v>
+        <v>110.0004</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>-0.75172413793103443</v>
+        <v>0.44000230400368645</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11560,15 +11526,15 @@
       </c>
       <c r="G28" s="31">
         <f>SUM(G18:G27)</f>
-        <v>27256</v>
+        <v>18721.999599999999</v>
       </c>
       <c r="H28" s="31">
         <f>SUM(H18:H27)</f>
-        <v>13692</v>
+        <v>1605.0003999999999</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="4"/>
-        <v>0.50234810683886122</v>
+        <v>8.5728043707468088E-2</v>
       </c>
       <c r="P28" t="s">
         <v>75</v>
@@ -11602,15 +11568,15 @@
       </c>
       <c r="B31" s="28">
         <f>(B22+G13+L6+B26+G28+L24)</f>
-        <v>230103.83</v>
+        <v>237501.99559999999</v>
       </c>
       <c r="C31" s="28">
         <f>(C22+C26+H28+H13+M6+M24)</f>
-        <v>37452.171999999999</v>
+        <v>-37646.995600000002</v>
       </c>
       <c r="D31" s="29">
         <f>(C31/B31)</f>
-        <v>0.16276205398232615</v>
+        <v>-0.15851233378015459</v>
       </c>
       <c r="E31" s="4"/>
     </row>

--- a/DesktopC/bin/Debug/HOUSE REPORT 2017-08-04.xlsx
+++ b/DesktopC/bin/Debug/HOUSE REPORT 2017-08-04.xlsx
@@ -16,7 +16,7 @@
     <sheet name="JUL 25TH" sheetId="2" r:id="rId2"/>
     <sheet name="JULY 26TH" sheetId="3" r:id="rId3"/>
     <sheet name="JUL 27TH " sheetId="4" r:id="rId4"/>
-    <sheet name="2017-07-30 00-00-00" sheetId="5" r:id="rId5"/>
+    <sheet name="2017-08-01 00-00-00" sheetId="5" r:id="rId5"/>
     <sheet name="JUL 29TH" sheetId="6" r:id="rId6"/>
     <sheet name="JUL 30TH" sheetId="7" r:id="rId7"/>
     <sheet name="JUL 24TH (2)" sheetId="8" r:id="rId8"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="96">
   <si>
     <t>Volume</t>
   </si>
@@ -265,6 +265,66 @@
   </si>
   <si>
     <t>g8perhead.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straight Bet SOC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straight Bet NBA  </t>
+  </si>
+  <si>
+    <t>MAJOR LEAGUE BASEBALL ML</t>
+  </si>
+  <si>
+    <t>MAJOR LEAGUE BASEBALL RL</t>
+  </si>
+  <si>
+    <t>MAJOR LEAGUE BASEBALL Total</t>
+  </si>
+  <si>
+    <t>MLB - 1ST HALVES (5 FULL INNINGS) ML</t>
+  </si>
+  <si>
+    <t>MLB - 1ST HALVES (5 FULL INNINGS) RL</t>
+  </si>
+  <si>
+    <t>MLB - 1ST HALVES (5 FULL INNINGS) Total</t>
+  </si>
+  <si>
+    <t>MLB - 2HF (4 FULL INNINGS+EXTRA INNS)</t>
+  </si>
+  <si>
+    <t>MLB - ALTERNATIVE RUN LINES RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCtotal </t>
+  </si>
+  <si>
+    <t>MLB - 2½ RUN LINES RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLB - GAME PROPStotal </t>
+  </si>
+  <si>
+    <t>MLB - LIVE WAGERING  ML</t>
+  </si>
+  <si>
+    <t>MLB - LIVE WAGERING  RL</t>
+  </si>
+  <si>
+    <t>MLB - LIVE WAGERING  Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLB Exoticstotal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLB GRAND SALAMItotal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLB SERIES PRICEStotal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAPANESE BASEBALLtotal </t>
   </si>
 </sst>
 </file>
@@ -10586,7 +10646,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10594,7 +10654,7 @@
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -10667,35 +10727,33 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B3" s="10">
-        <v>101285</v>
+        <v>119166</v>
       </c>
       <c r="C3" s="10">
-        <v>-27409</v>
+        <v>-13080</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D22" si="0">(C3/B3)</f>
-        <v>-0.27061262773362293</v>
+        <v>-0.10976285182015004</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="11" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G3" s="10">
-        <v>1589</v>
+        <v>142</v>
       </c>
       <c r="H3" s="10">
-        <v>-218</v>
+        <v>-31</v>
       </c>
       <c r="I3" s="8">
         <f>(H3/G3)</f>
-        <v>-0.13719320327249843</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.21830985915492956</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="8" t="e">
@@ -10705,35 +10763,33 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B4" s="10">
-        <v>20595</v>
+        <v>41280</v>
       </c>
       <c r="C4" s="10">
-        <v>-16859</v>
+        <v>-20496</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="0"/>
-        <v>-0.81859674678319982</v>
+        <v>-0.49651162790697673</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="11" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G4" s="10">
-        <v>5011</v>
+        <v>307</v>
       </c>
       <c r="H4" s="10">
-        <v>-1260</v>
+        <v>300</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I13" si="2">(H4/G4)</f>
-        <v>-0.2514468170025943</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>0.9771986970684039</v>
+      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="8" t="e">
@@ -10743,35 +10799,33 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B5" s="10">
-        <v>23696</v>
+        <v>53409</v>
       </c>
       <c r="C5" s="10">
-        <v>2836</v>
+        <v>-13224</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>0.11968264686022957</v>
+        <v>-0.24759871931696906</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="11" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G5" s="10">
-        <v>2576</v>
+        <v>364</v>
       </c>
       <c r="H5" s="10">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>0.10989010989010989</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="8" t="e">
@@ -10781,22 +10835,20 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10">
-        <v>7926</v>
+        <v>12371</v>
       </c>
       <c r="C6" s="10">
-        <v>-5483</v>
+        <v>-4713</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>-0.69177390865505928</v>
+        <v>-0.38097162719262789</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="8" t="e">
@@ -10821,22 +10873,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10">
-        <v>10950</v>
+        <v>6359</v>
       </c>
       <c r="C7" s="10">
-        <v>6347</v>
+        <v>-6181</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>0.57963470319634702</v>
+        <v>-0.97200817738638146</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="8" t="e">
@@ -10846,22 +10896,20 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10">
-        <v>6079</v>
+        <v>1822</v>
       </c>
       <c r="C8" s="10">
-        <v>3256</v>
+        <v>-708</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>0.53561441026484624</v>
+        <v>-0.38858397365532382</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="8" t="e">
@@ -10871,7 +10919,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -10884,9 +10932,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="8" t="e">
@@ -10908,7 +10954,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -10921,9 +10967,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="8" t="e">
@@ -10939,7 +10983,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -10952,18 +10996,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="K11" s="11"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="8" t="e">
@@ -10973,21 +11013,21 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B12" s="10">
-        <v>2845</v>
+        <v>1045</v>
       </c>
       <c r="C12" s="10">
-        <v>-526</v>
+        <v>500</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>-0.18488576449912125</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
@@ -10999,9 +11039,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="K12" s="11"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="8" t="e">
@@ -11011,17 +11049,17 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10">
-        <v>971</v>
+        <v>1250</v>
       </c>
       <c r="C13" s="10">
-        <v>-971</v>
+        <v>1932</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1.5456000000000001</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="15" t="s">
@@ -11029,19 +11067,17 @@
       </c>
       <c r="G13" s="31">
         <f>SUM(G3:G12)</f>
-        <v>9176</v>
+        <v>813</v>
       </c>
       <c r="H13" s="31">
         <f>SUM(H3:H12)</f>
-        <v>-1340</v>
+        <v>309</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
-        <v>-0.14603312990409764</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>0.38007380073800739</v>
+      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="8" t="e">
@@ -11051,26 +11087,24 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10">
-        <v>2846</v>
+        <v>3908</v>
       </c>
       <c r="C14" s="10">
-        <v>-287</v>
+        <v>-3135</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>-0.10084328882642304</v>
+        <v>-0.80220061412487209</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="K14" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="8" t="e">
@@ -11080,22 +11114,20 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10">
-        <v>3560</v>
+        <v>3618</v>
       </c>
       <c r="C15" s="10">
-        <v>960</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>0.2696629213483146</v>
+        <v>2.6810392482034272E-2</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="K15" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="8" t="e">
@@ -11105,17 +11137,17 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10">
-        <v>3384</v>
+        <v>3879</v>
       </c>
       <c r="C16" s="10">
-        <v>-952</v>
+        <v>1251</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>-0.28132387706855794</v>
+        <v>0.3225058004640371</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
@@ -11130,9 +11162,7 @@
       <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="K16" s="11"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="8" t="e">
@@ -11142,17 +11172,17 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B17" s="10">
-        <v>5300</v>
+        <v>5808</v>
       </c>
       <c r="C17" s="10">
-        <v>2019</v>
+        <v>-557</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>0.3809433962264151</v>
+        <v>-9.5902203856749316E-2</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
@@ -11161,9 +11191,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="K17" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="8" t="e">
@@ -11173,31 +11201,27 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B18" s="10">
-        <v>9617.9959999999992</v>
+        <v>8527.9920000000002</v>
       </c>
       <c r="C18" s="10">
-        <v>-1651.9960000000001</v>
+        <v>-7106.9930000000004</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>-0.17176093647782764</v>
+        <v>-0.83337238121236512</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="8" t="e">
         <f t="shared" ref="I18:I28" si="4">(H18/G18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="K18" s="11"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="8" t="e">
@@ -11207,35 +11231,33 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B19" s="10">
-        <v>110</v>
+        <v>740</v>
       </c>
       <c r="C19" s="10">
-        <v>-110</v>
+        <v>580</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="11" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G19" s="10">
-        <v>2882</v>
+        <v>1009</v>
       </c>
       <c r="H19" s="10">
-        <v>679</v>
+        <v>-800</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>0.2356002775850104</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>46</v>
-      </c>
+        <v>-0.79286422200198214</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="8" t="e">
@@ -11245,35 +11267,33 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="C20" s="10">
-        <v>-101</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.16369529983792544</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="11" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G20" s="10">
-        <v>2042</v>
+        <v>424</v>
       </c>
       <c r="H20" s="10">
-        <v>-1392</v>
+        <v>-14</v>
       </c>
       <c r="I20" s="8">
         <f>(H20/G20)</f>
-        <v>-0.68168462291870713</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>49</v>
-      </c>
+        <v>-3.3018867924528301E-2</v>
+      </c>
+      <c r="K20" s="11"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="8" t="e">
@@ -11283,35 +11303,33 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B21" s="10">
-        <v>1355</v>
+        <v>352</v>
       </c>
       <c r="C21" s="10">
-        <v>-294</v>
+        <v>-8</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>-0.21697416974169742</v>
+        <v>-2.2727272727272728E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="13" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G21" s="10">
-        <v>1613</v>
+        <v>119</v>
       </c>
       <c r="H21" s="10">
-        <v>1100</v>
+        <v>-119</v>
       </c>
       <c r="I21" s="8">
         <f>(H21/G21)</f>
-        <v>0.68195908245505266</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="K21" s="11"/>
       <c r="L21" s="10">
         <v>0</v>
       </c>
@@ -11327,33 +11345,31 @@
       </c>
       <c r="B22" s="31">
         <f>SUM(B3:B21)</f>
-        <v>201136.99599999998</v>
+        <v>263534.99200000003</v>
       </c>
       <c r="C22" s="31">
         <f>SUM(C3:C21)</f>
-        <v>-39225.995999999999</v>
+        <v>-64848.993000000002</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>-0.1950212878788346</v>
+        <v>-0.24607355747277765</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="13" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G22" s="10">
-        <v>2847</v>
+        <v>165</v>
       </c>
       <c r="H22" s="10">
-        <v>1550</v>
+        <v>150</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>0.54443273621355814</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K22" s="11"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="8" t="e">
@@ -11368,21 +11384,19 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G23" s="10">
-        <v>5371</v>
+        <v>825</v>
       </c>
       <c r="H23" s="10">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
-        <v>7.223980636752933E-2</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="10">
         <v>0</v>
       </c>
@@ -11408,18 +11422,12 @@
         <v>2</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="10">
-        <v>900</v>
-      </c>
-      <c r="H24" s="10">
-        <v>-535</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="F24" s="13"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8" t="e">
         <f t="shared" si="4"/>
-        <v>-0.59444444444444444</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>59</v>
@@ -11445,47 +11453,33 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1438</v>
-      </c>
-      <c r="H25" s="10">
-        <v>-608</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8" t="e">
         <f t="shared" si="4"/>
-        <v>-0.42280945757997218</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="10">
-        <v>8467</v>
+        <v>10274</v>
       </c>
       <c r="C26" s="10">
-        <v>1314</v>
+        <v>1359</v>
       </c>
       <c r="D26" s="8">
         <f>(C26/B26)</f>
-        <v>0.15519074052202669</v>
+        <v>0.13227564726494062</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1379</v>
-      </c>
-      <c r="H26" s="10">
-        <v>313</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="F26" s="13"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8" t="e">
         <f t="shared" si="4"/>
-        <v>0.22697606961566352</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11494,29 +11488,27 @@
       </c>
       <c r="B27" s="31">
         <f>SUM(B26)</f>
-        <v>8467</v>
+        <v>10274</v>
       </c>
       <c r="C27" s="31">
         <f>SUM(C26)</f>
-        <v>1314</v>
+        <v>1359</v>
       </c>
       <c r="D27" s="8">
         <f>(C27/B27)</f>
-        <v>0.15519074052202669</v>
+        <v>0.13227564726494062</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="10">
-        <v>249.99959999999999</v>
+        <v>300</v>
       </c>
       <c r="H27" s="10">
-        <v>110.0004</v>
+        <v>56</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>0.44000230400368645</v>
+        <v>0.18666666666666668</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11526,15 +11518,15 @@
       </c>
       <c r="G28" s="31">
         <f>SUM(G18:G27)</f>
-        <v>18721.999599999999</v>
+        <v>2842</v>
       </c>
       <c r="H28" s="31">
         <f>SUM(H18:H27)</f>
-        <v>1605.0003999999999</v>
+        <v>-502</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="4"/>
-        <v>8.5728043707468088E-2</v>
+        <v>-0.17663617171006332</v>
       </c>
       <c r="P28" t="s">
         <v>75</v>
@@ -11568,15 +11560,15 @@
       </c>
       <c r="B31" s="28">
         <f>(B22+G13+L6+B26+G28+L24)</f>
-        <v>237501.99559999999</v>
+        <v>277463.99200000003</v>
       </c>
       <c r="C31" s="28">
         <f>(C22+C26+H28+H13+M6+M24)</f>
-        <v>-37646.995600000002</v>
+        <v>-63682.993000000002</v>
       </c>
       <c r="D31" s="29">
         <f>(C31/B31)</f>
-        <v>-0.15851233378015459</v>
+        <v>-0.22951804499374462</v>
       </c>
       <c r="E31" s="4"/>
     </row>
